--- a/result/SPMS-ALS-SecondRevision.xlsx
+++ b/result/SPMS-ALS-SecondRevision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lam\LSPG Isaac\HPC results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psxhll\Dropbox\Apps\Overleaf\PLMA-ALS (FastLocalSearchMemetic)\revision02\SPMS-ALS github\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608E100-C7B7-4B2D-90E1-4609A46DA13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9641F-E585-4BEB-8959-F5B5E680D645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,6 +628,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,7 +638,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AH175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA72" sqref="AA72"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA70" sqref="AA70:AB75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1247,7 @@
       <c r="J5" s="17">
         <v>0.80710000000000004</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="47">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="M5" s="29" t="s">
@@ -1344,7 +1344,7 @@
       <c r="J6" s="17">
         <v>0.75660000000000005</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="47">
         <v>1.21E-2</v>
       </c>
       <c r="M6" s="29" t="s">
@@ -1441,7 +1441,7 @@
       <c r="J7" s="17">
         <v>0.78949999999999998</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="47">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="M7" s="29" t="s">
@@ -1538,7 +1538,7 @@
       <c r="J8" s="17">
         <v>0.73470000000000002</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="47">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="M8" s="29" t="s">
@@ -1635,7 +1635,7 @@
       <c r="J9" s="17">
         <v>0.65110000000000001</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="47">
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="M9" s="29" t="s">
@@ -1732,7 +1732,7 @@
       <c r="J10" s="17">
         <v>0.61219999999999997</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="47">
         <v>1.37E-2</v>
       </c>
       <c r="M10" s="29" t="s">
@@ -1829,7 +1829,7 @@
       <c r="J11" s="17">
         <v>0.8609</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="47">
         <v>2.8E-3</v>
       </c>
       <c r="M11" s="29" t="s">
@@ -1926,7 +1926,7 @@
       <c r="J12" s="17">
         <v>0.52769999999999995</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="47">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="M12" s="29" t="s">
@@ -2023,7 +2023,7 @@
       <c r="J13" s="17">
         <v>0.42970000000000003</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="47">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="M13" s="29" t="s">
@@ -2120,7 +2120,7 @@
       <c r="J14" s="17">
         <v>0.80310000000000004</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="47">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="M14" s="29" t="s">
@@ -2217,7 +2217,7 @@
       <c r="J15" s="17">
         <v>0.95630000000000004</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="47">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="M15" s="29" t="s">
@@ -2314,7 +2314,7 @@
       <c r="J16" s="17">
         <v>0.78569999999999995</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="47">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="M16" s="29" t="s">
@@ -2411,7 +2411,7 @@
       <c r="J17" s="17">
         <v>0.55520000000000003</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="47">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="M17" s="29" t="s">
@@ -2508,7 +2508,7 @@
       <c r="J18" s="17">
         <v>0.68969999999999998</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="47">
         <v>7.6E-3</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -2605,7 +2605,7 @@
       <c r="J19" s="17">
         <v>0.7077</v>
       </c>
-      <c r="K19" s="50">
+      <c r="K19" s="47">
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="M19" s="29" t="s">
@@ -2702,7 +2702,7 @@
       <c r="J20" s="17">
         <v>0.6714</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="47">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="M20" s="29" t="s">
@@ -2799,7 +2799,7 @@
       <c r="J21" s="17">
         <v>0.35439999999999999</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="47">
         <v>1.6E-2</v>
       </c>
       <c r="M21" s="29" t="s">
@@ -2896,7 +2896,7 @@
       <c r="J22" s="17">
         <v>0.75880000000000003</v>
       </c>
-      <c r="K22" s="50">
+      <c r="K22" s="47">
         <v>1.52E-2</v>
       </c>
       <c r="M22" s="29" t="s">
@@ -2993,7 +2993,7 @@
       <c r="J23" s="17">
         <v>0.80649999999999999</v>
       </c>
-      <c r="K23" s="50">
+      <c r="K23" s="47">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="M23" s="29" t="s">
@@ -3090,7 +3090,7 @@
       <c r="J24" s="17">
         <v>0.92390000000000005</v>
       </c>
-      <c r="K24" s="50">
+      <c r="K24" s="47">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="M24" s="29" t="s">
@@ -3187,7 +3187,7 @@
       <c r="J25" s="17">
         <v>0.95479999999999998</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="47">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="M25" s="29" t="s">
@@ -3284,7 +3284,7 @@
       <c r="J26" s="17">
         <v>0.4022</v>
       </c>
-      <c r="K26" s="50">
+      <c r="K26" s="47">
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="M26" s="29" t="s">
@@ -3381,7 +3381,7 @@
       <c r="J27" s="17">
         <v>0.74629999999999996</v>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="47">
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="M27" s="29" t="s">
@@ -3769,7 +3769,7 @@
       <c r="J31" s="17">
         <v>0.96640000000000004</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31" s="47">
         <v>6.3E-3</v>
       </c>
       <c r="M31" s="29" t="s">
@@ -3866,7 +3866,7 @@
       <c r="J32" s="17">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K32" s="50">
+      <c r="K32" s="47">
         <v>8.6E-3</v>
       </c>
       <c r="M32" s="29" t="s">
@@ -3963,7 +3963,7 @@
       <c r="J33" s="17">
         <v>0.64549999999999996</v>
       </c>
-      <c r="K33" s="50">
+      <c r="K33" s="47">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="M33" s="29" t="s">
@@ -4060,7 +4060,7 @@
       <c r="J34" s="17">
         <v>0.86319999999999997</v>
       </c>
-      <c r="K34" s="50">
+      <c r="K34" s="47">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="M34" s="29" t="s">
@@ -4157,7 +4157,7 @@
       <c r="J35" s="17">
         <v>0.6946</v>
       </c>
-      <c r="K35" s="50">
+      <c r="K35" s="47">
         <v>1.66E-2</v>
       </c>
       <c r="M35" s="29" t="s">
@@ -4254,7 +4254,7 @@
       <c r="J36" s="17">
         <v>0.42099999999999999</v>
       </c>
-      <c r="K36" s="50">
+      <c r="K36" s="47">
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="M36" s="29" t="s">
@@ -4351,7 +4351,7 @@
       <c r="J37" s="17">
         <v>0.73129999999999995</v>
       </c>
-      <c r="K37" s="50">
+      <c r="K37" s="47">
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="M37" s="29" t="s">
@@ -4448,7 +4448,7 @@
       <c r="J38" s="17">
         <v>0.69399999999999995</v>
       </c>
-      <c r="K38" s="50">
+      <c r="K38" s="47">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="M38" s="29" t="s">
@@ -4545,7 +4545,7 @@
       <c r="J39" s="17">
         <v>0.99070000000000003</v>
       </c>
-      <c r="K39" s="50">
+      <c r="K39" s="47">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="M39" s="29" t="s">
@@ -4642,7 +4642,7 @@
       <c r="J40" s="17">
         <v>0.95569999999999999</v>
       </c>
-      <c r="K40" s="50">
+      <c r="K40" s="47">
         <v>7.6E-3</v>
       </c>
       <c r="M40" s="29" t="s">
@@ -4739,7 +4739,7 @@
       <c r="J41" s="17">
         <v>0.95689999999999997</v>
       </c>
-      <c r="K41" s="50">
+      <c r="K41" s="47">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="M41" s="29" t="s">
@@ -4836,7 +4836,7 @@
       <c r="J42" s="17">
         <v>0.50780000000000003</v>
       </c>
-      <c r="K42" s="50">
+      <c r="K42" s="47">
         <v>6.6E-3</v>
       </c>
       <c r="M42" s="29" t="s">
@@ -4933,7 +4933,7 @@
       <c r="J43" s="17">
         <v>0.92079999999999995</v>
       </c>
-      <c r="K43" s="50">
+      <c r="K43" s="47">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="M43" s="29" t="s">
@@ -7101,10 +7101,6 @@
         <v>74</v>
       </c>
       <c r="N70" s="3"/>
-      <c r="AA70" s="5">
-        <f>AG67/AA67</f>
-        <v>3.1488325997355328E-2</v>
-      </c>
       <c r="AH70" s="7"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
@@ -7112,10 +7108,6 @@
         <v>74</v>
       </c>
       <c r="N71" s="3"/>
-      <c r="AA71" s="5">
-        <f>1-AA70</f>
-        <v>0.96851167400264471</v>
-      </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="M72" s="29" t="s">
@@ -13273,28 +13265,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -16917,40 +16909,40 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
